--- a/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
+++ b/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\EDLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\EDLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C935BA-9ED7-49C6-9ECA-A9A8727F7ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594E81E-240A-45D7-BD4A-591493174C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25905" yWindow="3795" windowWidth="27495" windowHeight="19425" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EDLE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,7 +520,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.04</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
+++ b/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\EDLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\elec\EDLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594E81E-240A-45D7-BD4A-591493174C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93093442-980B-404B-AC19-5EE24E2BC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
